--- a/data/published/2019_SealeCarlisleWetmoreFloweMickes/testOutput.xlsx
+++ b/data/published/2019_SealeCarlisleWetmoreFloweMickes/testOutput.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11820" yWindow="5020" windowWidth="38960" windowHeight="20800" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11400" yWindow="10520" windowWidth="38960" windowHeight="17120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -450,10 +450,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:CG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -462,7 +462,28 @@
     <col width="20.83203125" customWidth="1" style="1" min="2" max="7"/>
     <col width="19.5" customWidth="1" style="1" min="8" max="8"/>
     <col width="16.83203125" customWidth="1" style="1" min="9" max="13"/>
-    <col width="10.83203125" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.83203125" customWidth="1" style="1" min="14" max="19"/>
+    <col width="19.5" customWidth="1" style="1" min="20" max="20"/>
+    <col width="16.83203125" customWidth="1" style="1" min="21" max="25"/>
+    <col width="20.83203125" customWidth="1" style="1" min="26" max="31"/>
+    <col width="19.5" customWidth="1" style="1" min="32" max="32"/>
+    <col width="16.83203125" customWidth="1" style="1" min="33" max="37"/>
+    <col width="19.5" customWidth="1" style="1" min="38" max="38"/>
+    <col width="16.83203125" customWidth="1" style="1" min="39" max="43"/>
+    <col width="20.83203125" customWidth="1" style="1" min="44" max="49"/>
+    <col width="19.5" customWidth="1" style="1" min="50" max="50"/>
+    <col width="16.83203125" customWidth="1" style="1" min="51" max="55"/>
+    <col width="19.5" customWidth="1" style="1" min="56" max="56"/>
+    <col width="16.83203125" customWidth="1" style="1" min="57" max="61"/>
+    <col width="19.5" customWidth="1" style="1" min="62" max="62"/>
+    <col width="16.83203125" customWidth="1" style="1" min="63" max="67"/>
+    <col width="19.5" customWidth="1" style="1" min="68" max="68"/>
+    <col width="16.83203125" customWidth="1" style="1" min="69" max="73"/>
+    <col width="19.5" customWidth="1" style="1" min="74" max="74"/>
+    <col width="16.83203125" customWidth="1" style="1" min="75" max="79"/>
+    <col width="19.5" customWidth="1" style="1" min="80" max="80"/>
+    <col width="16.83203125" customWidth="1" style="1" min="81" max="85"/>
+    <col width="10.83203125" customWidth="1" style="1" min="86" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,6 +552,366 @@
           <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E1()</t>
         </is>
       </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E2()</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3a()</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BD1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BE1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BF1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BH1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BI1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E3b()</t>
+        </is>
+      </c>
+      <c r="BJ1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BK1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BL1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BM1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BN1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BO1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BP1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BQ1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BR1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BS1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BT1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BU1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E4()</t>
+        </is>
+      </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="BW1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="BX1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="BY1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="BZ1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CA1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CB1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CC1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CD1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CE1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CF1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
+      <c r="CG1" s="2" t="inlineStr">
+        <is>
+          <t>published_SealeCarlisle_Wetmore_Flowe_Mickes_2019_E5()</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -598,6 +979,366 @@
           <t>Integration</t>
         </is>
       </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AB2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AJ2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AK2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AL2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AN2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AO2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AQ2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AR2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AS2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AT2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AU2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AV2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AW2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AX2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AY2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AZ2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BA2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BB2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BC2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BD2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BE2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BF2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BG2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BH2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BI2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BJ2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BK2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BL2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BM2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BN2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BO2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BP2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BQ2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BR2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BS2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BT2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BU2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="BV2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BW2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="BX2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BY2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="BZ2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="CA2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="CB2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="CC2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="CD2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="CF2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="CG2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -665,6 +1406,366 @@
           <t>UnequalVariance</t>
         </is>
       </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="Y3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="Z3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AA3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AB3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AC3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AD3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AE3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AF3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AG3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AH3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AI3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AJ3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AK3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AL3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AM3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AN3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AO3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AP3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AQ3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AR3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AS3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AT3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AU3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AV3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AW3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AX3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AY3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AZ3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BA3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BB3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BC3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BD3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BE3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BF3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BG3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BH3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BI3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BJ3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BK3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BL3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BM3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BN3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BO3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BP3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BQ3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BR3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BS3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BT3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BU3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BV3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BW3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BX3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="BY3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="BZ3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="CA3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="CB3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="CC3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="CD3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="CE3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="CF3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="CG3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -732,6 +1833,366 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="U4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AB4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AC4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AD4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AE4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AF4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AG4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AH4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AI4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AJ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AK4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AL4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AM4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AN4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AO4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AP4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AQ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AR4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AS4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AT4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AU4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AV4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AW4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AX4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AY4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AZ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BA4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BB4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BC4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BD4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BE4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BF4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BG4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BH4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BI4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BJ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BK4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BL4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BM4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BN4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BO4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BP4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BQ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BR4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BS4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BT4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BU4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BV4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BW4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BX4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BY4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="BZ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CA4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CB4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CC4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CD4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CE4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CF4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="CG4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -799,6 +2260,366 @@
           <t>condition Sequential</t>
         </is>
       </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>condition Video</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>condition Video</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>condition Video</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>condition Video</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>condition Video</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>condition Video</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>condition Photo</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>condition Photo</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>condition Photo</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>condition Photo</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>condition Photo</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>condition Photo</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2-laps</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2-laps</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2-laps</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2-laps</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2-laps</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2-laps</t>
+        </is>
+      </c>
+      <c r="AF5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1-lap</t>
+        </is>
+      </c>
+      <c r="AG5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1-lap</t>
+        </is>
+      </c>
+      <c r="AH5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1-lap</t>
+        </is>
+      </c>
+      <c r="AI5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1-lap</t>
+        </is>
+      </c>
+      <c r="AJ5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1-lap</t>
+        </is>
+      </c>
+      <c r="AK5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1-lap</t>
+        </is>
+      </c>
+      <c r="AL5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice</t>
+        </is>
+      </c>
+      <c r="AM5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice</t>
+        </is>
+      </c>
+      <c r="AN5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice</t>
+        </is>
+      </c>
+      <c r="AO5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice</t>
+        </is>
+      </c>
+      <c r="AP5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice</t>
+        </is>
+      </c>
+      <c r="AQ5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice</t>
+        </is>
+      </c>
+      <c r="AR5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice Lap</t>
+        </is>
+      </c>
+      <c r="AS5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice Lap</t>
+        </is>
+      </c>
+      <c r="AT5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice Lap</t>
+        </is>
+      </c>
+      <c r="AU5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice Lap</t>
+        </is>
+      </c>
+      <c r="AV5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice Lap</t>
+        </is>
+      </c>
+      <c r="AW5" s="3" t="inlineStr">
+        <is>
+          <t>condition Choice Lap</t>
+        </is>
+      </c>
+      <c r="AX5" s="3" t="inlineStr">
+        <is>
+          <t>condition Single Lap</t>
+        </is>
+      </c>
+      <c r="AY5" s="3" t="inlineStr">
+        <is>
+          <t>condition Single Lap</t>
+        </is>
+      </c>
+      <c r="AZ5" s="3" t="inlineStr">
+        <is>
+          <t>condition Single Lap</t>
+        </is>
+      </c>
+      <c r="BA5" s="3" t="inlineStr">
+        <is>
+          <t>condition Single Lap</t>
+        </is>
+      </c>
+      <c r="BB5" s="3" t="inlineStr">
+        <is>
+          <t>condition Single Lap</t>
+        </is>
+      </c>
+      <c r="BC5" s="3" t="inlineStr">
+        <is>
+          <t>condition Single Lap</t>
+        </is>
+      </c>
+      <c r="BD5" s="3" t="inlineStr">
+        <is>
+          <t>condition Double Lap</t>
+        </is>
+      </c>
+      <c r="BE5" s="3" t="inlineStr">
+        <is>
+          <t>condition Double Lap</t>
+        </is>
+      </c>
+      <c r="BF5" s="3" t="inlineStr">
+        <is>
+          <t>condition Double Lap</t>
+        </is>
+      </c>
+      <c r="BG5" s="3" t="inlineStr">
+        <is>
+          <t>condition Double Lap</t>
+        </is>
+      </c>
+      <c r="BH5" s="3" t="inlineStr">
+        <is>
+          <t>condition Double Lap</t>
+        </is>
+      </c>
+      <c r="BI5" s="3" t="inlineStr">
+        <is>
+          <t>condition Double Lap</t>
+        </is>
+      </c>
+      <c r="BJ5" s="3" t="inlineStr">
+        <is>
+          <t>condition 6-member</t>
+        </is>
+      </c>
+      <c r="BK5" s="3" t="inlineStr">
+        <is>
+          <t>condition 6-member</t>
+        </is>
+      </c>
+      <c r="BL5" s="3" t="inlineStr">
+        <is>
+          <t>condition 6-member</t>
+        </is>
+      </c>
+      <c r="BM5" s="3" t="inlineStr">
+        <is>
+          <t>condition 6-member</t>
+        </is>
+      </c>
+      <c r="BN5" s="3" t="inlineStr">
+        <is>
+          <t>condition 6-member</t>
+        </is>
+      </c>
+      <c r="BO5" s="3" t="inlineStr">
+        <is>
+          <t>condition 6-member</t>
+        </is>
+      </c>
+      <c r="BP5" s="3" t="inlineStr">
+        <is>
+          <t>condition 9-member</t>
+        </is>
+      </c>
+      <c r="BQ5" s="3" t="inlineStr">
+        <is>
+          <t>condition 9-member</t>
+        </is>
+      </c>
+      <c r="BR5" s="3" t="inlineStr">
+        <is>
+          <t>condition 9-member</t>
+        </is>
+      </c>
+      <c r="BS5" s="3" t="inlineStr">
+        <is>
+          <t>condition 9-member</t>
+        </is>
+      </c>
+      <c r="BT5" s="3" t="inlineStr">
+        <is>
+          <t>condition 9-member</t>
+        </is>
+      </c>
+      <c r="BU5" s="3" t="inlineStr">
+        <is>
+          <t>condition 9-member</t>
+        </is>
+      </c>
+      <c r="BV5" s="3" t="inlineStr">
+        <is>
+          <t>condition Sequential</t>
+        </is>
+      </c>
+      <c r="BW5" s="3" t="inlineStr">
+        <is>
+          <t>condition Sequential</t>
+        </is>
+      </c>
+      <c r="BX5" s="3" t="inlineStr">
+        <is>
+          <t>condition Sequential</t>
+        </is>
+      </c>
+      <c r="BY5" s="3" t="inlineStr">
+        <is>
+          <t>condition Sequential</t>
+        </is>
+      </c>
+      <c r="BZ5" s="3" t="inlineStr">
+        <is>
+          <t>condition Sequential</t>
+        </is>
+      </c>
+      <c r="CA5" s="3" t="inlineStr">
+        <is>
+          <t>condition Sequential</t>
+        </is>
+      </c>
+      <c r="CB5" s="3" t="inlineStr">
+        <is>
+          <t>condition Simultaneous</t>
+        </is>
+      </c>
+      <c r="CC5" s="3" t="inlineStr">
+        <is>
+          <t>condition Simultaneous</t>
+        </is>
+      </c>
+      <c r="CD5" s="3" t="inlineStr">
+        <is>
+          <t>condition Simultaneous</t>
+        </is>
+      </c>
+      <c r="CE5" s="3" t="inlineStr">
+        <is>
+          <t>condition Simultaneous</t>
+        </is>
+      </c>
+      <c r="CF5" s="3" t="inlineStr">
+        <is>
+          <t>condition Simultaneous</t>
+        </is>
+      </c>
+      <c r="CG5" s="3" t="inlineStr">
+        <is>
+          <t>condition Simultaneous</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -866,6 +2687,366 @@
           <t>[-1,60,80,100]</t>
         </is>
       </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="Z6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AA6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AB6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AC6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AD6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AE6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AF6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AG6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AH6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AI6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AJ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AK6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AL6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AM6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AN6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AO6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AP6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AR6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AS6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AT6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AU6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AV6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AW6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AX6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AY6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AZ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BA6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BB6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BC6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BD6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BE6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BF6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BG6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BH6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BI6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BJ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BK6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BL6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BM6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BN6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BO6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BP6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BQ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BR6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BS6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BT6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BU6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BV6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BW6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BX6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BY6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="BZ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CA6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CB6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CC6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CD6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CE6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="CG6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
     </row>
     <row r="7" customFormat="1" s="4">
       <c r="A7" s="4" t="inlineStr">
@@ -933,6 +3114,366 @@
           <t>True</t>
         </is>
       </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AB7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AC7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AD7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AF7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AG7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AH7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AI7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AJ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AK7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AL7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AM7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AN7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AO7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AQ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AR7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AS7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AT7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AU7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AV7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AW7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AX7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AY7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AZ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BA7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BB7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BC7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BD7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BE7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BF7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BG7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BH7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BI7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BJ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BK7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BL7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BM7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BN7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BO7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BP7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BQ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BR7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BS7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BT7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BU7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BV7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BW7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BX7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BY7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="BZ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CA7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CB7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CC7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CD7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CF7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="CG7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -976,6 +3517,222 @@
       <c r="M8" s="3" t="n">
         <v>2000</v>
       </c>
+      <c r="N8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AZ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BA8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BB8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BC8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BD8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BE8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BF8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BG8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BH8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BI8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BJ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BK8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BL8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BM8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BN8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BO8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BP8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BQ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BR8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BS8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BT8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BU8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BV8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BW8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CE8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CF8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="CG8" s="3" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
@@ -1026,6 +3783,96 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1069,6 +3916,96 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1112,6 +4049,96 @@
       <c r="M12" t="n">
         <v>0.087131477029553</v>
       </c>
+      <c r="N12" t="n">
+        <v>0.4075681482882131</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4406013757007248</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8604336804365578</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.029638674881944</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9670521294918044</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8854202186393161</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9370754497552199</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.948397381614986</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9464935690788687</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9255981344647002</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.095902755427618</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.7446881735068258</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.5602098128526003</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.2426991531346422</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.767600112503551</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.8525222182598819</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.8158299565596081</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.4204389976750915</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.6807420638337601</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.2360487055197501</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.8238550182566124</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.859215970843926</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.8814763305427211</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.4301721623675412</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.7957115571981237</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.7404428355577757</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.8191585328015035</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.7765082472794517</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.8661702392839143</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.4256901312943292</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1155,6 +4182,96 @@
       <c r="M13" t="n">
         <v>1.864449394376516</v>
       </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9915068419244477</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.7532120613904324</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.428196903432163</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9866150222230047</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.027522123289574</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.544705863034566</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.117308133319777</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.8862694853973248</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.748269936067918</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.190250249925004</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.9523204418835023</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.836780880260456</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.065318879298081</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.056281571184499</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.70855081844261</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1198,6 +4315,96 @@
       <c r="M14" t="n">
         <v>0.5043624233263233</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.9162804543850585</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9047850953804204</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1028755042039216</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.875251146183325</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.002426661492137769</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.002296053126994362</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.117650988350466</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-4.918748657172004e-05</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.7427319078498482</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.9999212508408988</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1230963052696964</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.4300652745447981</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.6283507370677548</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.998213080980392</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.1078106612503962</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.3563826562152108</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.006001831234315367</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.09868911352776753</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.1098648285388475</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.1687153203206122</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1241,6 +4448,96 @@
       <c r="M15" t="n">
         <v>0.5043624233263233</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.9162804543850585</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9047850953804204</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1028755042039216</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.875251146183325</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.002426661492137769</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.002296053126994362</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.117650988350466</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-4.918748657172004e-05</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.7427319078498482</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.9999212508408988</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1230963052696964</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.4300652745447981</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.6283507370677548</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.998213080980392</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1078106612503962</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.3563826562152108</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.006001831234315367</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.09868911352776753</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.1098648285388475</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.1687153203206122</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1284,6 +4581,96 @@
       <c r="M16" t="n">
         <v>-2.921309586520058</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.2435287758996195</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2851403505927556</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.267442451328159</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.262600349811264</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.9016972242828332</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-3.093613764007304</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.473013244791398</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.473376543884944</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.412267324577661</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.413240386330237</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1447463208356277</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.04592108671508491</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.5342820282611082</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.5448722169387006</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.181013521128404</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.178104468274225</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-1.545601009081341</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-2.817365477650581</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.7758333431249665</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.4170946200337097</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.20361633086268</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1.202451759725053</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-1.38187296732965</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-2.323944551040355</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.205688526005117</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.193886873100604</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.206598830866233</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.20842033239179</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-1.329803461117517</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-1.750804222455189</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1327,6 +4714,96 @@
       <c r="M17" t="n">
         <v>2.456087835262023</v>
       </c>
+      <c r="N17" t="n">
+        <v>1.006738500004982</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.042205621285036</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.666113562767173</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.646926571377364</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.6398608860333</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.710481666679872</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.006192822455859</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.005522739054477</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.86673203191113</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.86946463796562</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.816139272691808</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.614640477584347</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.398410631278097</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4815886884547775</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.672608165852935</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.664034317368954</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.663845420848161</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.28478782578353</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.543115795391937</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.5724585063414384</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.678917826894594</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1.675397619655612</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.695709175006548</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.084772270845901</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.724344127539754</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.721118244122742</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.630796684352482</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.634624903380177</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.437579047244798</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.333307224254261</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1370,6 +4847,96 @@
       <c r="M18" t="n">
         <v>6.383775167237877</v>
       </c>
+      <c r="N18" t="n">
+        <v>1.729841205395362</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.759808273159723</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.116347283895593</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.07778064687655</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.086761626975653</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10.15186901269081</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.519323957595846</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.516906824148297</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.338648003149439</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.344143592459393</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.072848126337332</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4.916247402342771</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.185863549507617</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.41153049297214</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.226386990310389</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.207841783564658</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>4.590300026064838</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6.876128768155375</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.287411243910828</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.512729434876301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2.242655569688909</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.234596972420562</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>4.589619483898003</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>6.278860913505232</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.340351509627587</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.348133867990006</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.181929373918433</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>2.191168652395906</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>4.300504776067862</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>4.591162996788656</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1497,6 +5064,96 @@
       <c r="M31" t="n">
         <v>555</v>
       </c>
+      <c r="N31" t="n">
+        <v>403</v>
+      </c>
+      <c r="O31" t="n">
+        <v>741</v>
+      </c>
+      <c r="P31" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>171</v>
+      </c>
+      <c r="R31" t="n">
+        <v>128</v>
+      </c>
+      <c r="S31" t="n">
+        <v>553</v>
+      </c>
+      <c r="T31" t="n">
+        <v>253</v>
+      </c>
+      <c r="U31" t="n">
+        <v>357</v>
+      </c>
+      <c r="V31" t="n">
+        <v>95</v>
+      </c>
+      <c r="W31" t="n">
+        <v>190</v>
+      </c>
+      <c r="X31" t="n">
+        <v>138</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>371</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1281</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>211</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>155</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>236</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1022</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>113</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>242</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>134</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>558</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>513</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>218</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>104</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>197</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>135</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1505,40 +5162,130 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20.72026690499999</v>
+        <v>19.57049439599996</v>
       </c>
       <c r="C32" t="n">
-        <v>19.45969486300001</v>
+        <v>19.08175321500039</v>
       </c>
       <c r="D32" t="n">
-        <v>28.40834717999999</v>
+        <v>25.81565188399964</v>
       </c>
       <c r="E32" t="n">
-        <v>58.299198176</v>
+        <v>62.15954255900033</v>
       </c>
       <c r="F32" t="n">
-        <v>41.39191088699999</v>
+        <v>37.33858422699996</v>
       </c>
       <c r="G32" t="n">
-        <v>138.881111745</v>
+        <v>125.7828181799996</v>
       </c>
       <c r="H32" t="n">
-        <v>25.24638626899997</v>
+        <v>25.71626150100019</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4342128440001</v>
+        <v>94.4830296909995</v>
       </c>
       <c r="J32" t="n">
-        <v>28.58160701500003</v>
+        <v>26.69869258300059</v>
       </c>
       <c r="K32" t="n">
-        <v>43.96204379899996</v>
+        <v>41.72202041200035</v>
       </c>
       <c r="L32" t="n">
-        <v>41.64892008899994</v>
+        <v>39.43075787700036</v>
       </c>
       <c r="M32" t="n">
-        <v>171.5674654640001</v>
+        <v>168.798936397</v>
+      </c>
+      <c r="N32" t="n">
+        <v>42.34932140899946</v>
+      </c>
+      <c r="O32" t="n">
+        <v>72.1618119929999</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25.57875973200044</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>40.92841810300069</v>
+      </c>
+      <c r="R32" t="n">
+        <v>34.95191169300051</v>
+      </c>
+      <c r="S32" t="n">
+        <v>153.0982256519992</v>
+      </c>
+      <c r="T32" t="n">
+        <v>28.56900486900031</v>
+      </c>
+      <c r="U32" t="n">
+        <v>43.02473733900024</v>
+      </c>
+      <c r="V32" t="n">
+        <v>22.03211945000021</v>
+      </c>
+      <c r="W32" t="n">
+        <v>42.31439613899965</v>
+      </c>
+      <c r="X32" t="n">
+        <v>39.38617432000046</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>99.56449976000022</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>30.71943943499991</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>186.0397720130004</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>30.91068186899975</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>51.42070733000037</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>46.24784706599985</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>168.1928186180003</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>21.8783896369996</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>139.1405363570002</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>31.60523886099963</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>58.62411824000083</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>38.38324814499992</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>168.2955643670002</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>55.10757159100012</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>22.86494831500022</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>26.12610995399973</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>43.62614242500058</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>37.78889159500068</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>140.2527798130004</v>
       </c>
     </row>
     <row r="33">
@@ -1583,6 +5330,96 @@
       <c r="M33" t="n">
         <v>1.186870313326242</v>
       </c>
+      <c r="N33" t="n">
+        <v>1.43785219591993</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.428163842880544</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9.773870697913702</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.129987766271672</v>
+      </c>
+      <c r="R33" t="n">
+        <v>13.12086991996325</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.29121113343185</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6.116535663021383</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6.096116537259173</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8.589796074267209</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8.528126694467563</v>
+      </c>
+      <c r="X33" t="n">
+        <v>18.96919798995343</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.599243855280156</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3.782677717428467</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.416094915507732</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>3.313385690131079</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.128957595016637</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>14.36350620563885</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.171070670473352</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>5.135963704042876</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.707948461500687</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>2.464826088110022</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.255420502172703</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>18.3175498076017</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>3.267409497880728</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>8.430654745214483</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>7.960261965683213</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5.510830204211224</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>5.256097684355596</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>25.15825783070986</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>8.309043572647376</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1626,6 +5463,96 @@
       <c r="M34" t="n">
         <v>3</v>
       </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1669,6 +5596,96 @@
       <c r="M35" t="n">
         <v>0.395623437775414</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.3594630489799824</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.4760546142935147</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.95477413958274</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.043329255423891</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.62417398399265</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.4304037111439499</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.529133915755346</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.032038845753057</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.717959214853442</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.842708898155854</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.793839597990686</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3.199747951760052</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.9456694293571168</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8053649718359105</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.6626771380262158</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.7096525316722123</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.87270124112777</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.7236902234911172</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.283990926010719</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.9026494871668956</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.4929652176220044</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.7518068340575677</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>3.663509961520339</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.089136499293576</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.107663686303621</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2.653420655227738</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.102166040842245</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.752032561451865</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>5.031651566141973</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>2.769681190882459</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -1719,6 +5736,96 @@
       <c r="M37" t="n">
         <v>1015</v>
       </c>
+      <c r="N37" t="n">
+        <v>1115</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1115</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1115</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1115</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1115</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1115</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1157</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1157</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1157</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1157</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1157</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1157</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1025</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1025</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1025</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1025</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1025</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1025</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1035</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1035</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1035</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1035</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1035</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1035</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1762,6 +5869,96 @@
       <c r="M38" t="n">
         <v>489</v>
       </c>
+      <c r="N38" t="n">
+        <v>567</v>
+      </c>
+      <c r="O38" t="n">
+        <v>567</v>
+      </c>
+      <c r="P38" t="n">
+        <v>567</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>567</v>
+      </c>
+      <c r="R38" t="n">
+        <v>567</v>
+      </c>
+      <c r="S38" t="n">
+        <v>567</v>
+      </c>
+      <c r="T38" t="n">
+        <v>553</v>
+      </c>
+      <c r="U38" t="n">
+        <v>553</v>
+      </c>
+      <c r="V38" t="n">
+        <v>553</v>
+      </c>
+      <c r="W38" t="n">
+        <v>553</v>
+      </c>
+      <c r="X38" t="n">
+        <v>553</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>553</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>523</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>523</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>523</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>523</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>523</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>523</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>534</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>534</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>534</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>534</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>534</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>534</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>501</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>501</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>501</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>501</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1805,6 +6002,96 @@
       <c r="M39" t="n">
         <v>526</v>
       </c>
+      <c r="N39" t="n">
+        <v>548</v>
+      </c>
+      <c r="O39" t="n">
+        <v>548</v>
+      </c>
+      <c r="P39" t="n">
+        <v>548</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>548</v>
+      </c>
+      <c r="R39" t="n">
+        <v>548</v>
+      </c>
+      <c r="S39" t="n">
+        <v>548</v>
+      </c>
+      <c r="T39" t="n">
+        <v>604</v>
+      </c>
+      <c r="U39" t="n">
+        <v>604</v>
+      </c>
+      <c r="V39" t="n">
+        <v>604</v>
+      </c>
+      <c r="W39" t="n">
+        <v>604</v>
+      </c>
+      <c r="X39" t="n">
+        <v>604</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>604</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>502</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>502</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>502</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>502</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>502</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>502</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>508</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>508</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>508</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>508</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>508</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>508</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>534</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>534</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>534</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>534</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>534</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>534</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1848,6 +6135,96 @@
       <c r="M40" t="n">
         <v>0.1977186311787072</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.2572992700729927</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.2572992700729927</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.2572992700729927</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2572992700729927</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.2572992700729927</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.2572992700729927</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2400662251655629</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.2400662251655629</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.2400662251655629</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.2400662251655629</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.2400662251655629</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.2400662251655629</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.2410358565737052</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.2410358565737052</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.2410358565737052</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.2410358565737052</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.2410358565737052</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.2410358565737052</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.2434456928838951</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.2434456928838951</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.2434456928838951</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.2434456928838951</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.2434456928838951</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.2434456928838951</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1891,6 +6268,96 @@
       <c r="M41" t="n">
         <v>0.07816405362417632</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.07211444248481286</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.07211444248481286</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.07211444248481286</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.07211444248481286</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.07211444248481286</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.07211444248481286</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.05364677516576251</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.05364677516576251</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.05364677516576251</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.05364677516576251</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.05364677516576251</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.05364677516576251</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.07903123008285533</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.07903123008285533</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.07903123008285533</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.07903123008285533</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.07903123008285533</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.07903123008285533</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.07719517270079068</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.07719517270079068</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.07719517270079068</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.07719517270079068</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.07719517270079068</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.07719517270079068</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.07473941006875139</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.07473941006875139</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.07473941006875139</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.07473941006875139</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.07473941006875139</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.07473941006875139</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1934,6 +6401,96 @@
       <c r="M42" t="n">
         <v>0.5810485112370056</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.7451478130939844</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.7451478130939844</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7451478130939844</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.7451478130939844</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.7451478130939844</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.7451478130939844</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.9706754077073849</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.9706754077073849</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.9706754077073849</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.9706754077073849</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9706754077073849</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.9706754077073849</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.7175051039954397</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.7175051039954397</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.7175051039954397</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.7175051039954397</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.7175051039954397</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.7175051039954397</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.793663028615339</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.793663028615339</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.793663028615339</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.793663028615339</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.793663028615339</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.793663028615339</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.8153469420126535</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.8153469420126535</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.8153469420126535</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.8153469420126535</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.8153469420126535</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.8153469420126535</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1976,6 +6533,96 @@
       </c>
       <c r="M43" t="n">
         <v>0.00878503645691852</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.01013561563186471</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.01013561563186471</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01013561563186471</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.01013561563186471</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.01013561563186471</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.01013561563186471</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.008065913522587721</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.008065913522587721</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.008065913522587721</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.008065913522587721</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.008065913522587721</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.008065913522587721</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.01097746546359782</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.01097746546359782</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.01097746546359782</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.01097746546359782</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.01097746546359782</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.01097746546359782</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.01160568925604169</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.01160568925604169</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.01160568925604169</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.01160568925604169</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.01160568925604169</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.01160568925604169</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.01122545456466585</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.01122545456466585</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.01122545456466585</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.01122545456466585</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.01122545456466585</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.01122545456466585</v>
       </c>
     </row>
   </sheetData>
